--- a/data/GEM$ RESIDENTIAL  HOMEOWNER UWW_Mickey Mouse_color coded (1).xlsx
+++ b/data/GEM$ RESIDENTIAL  HOMEOWNER UWW_Mickey Mouse_color coded (1).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kevin/Documents/Repos/HACC2019/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E6456D5-AE90-7A40-B740-284940E4449C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3185961F-FACB-F84B-B6D4-188055D9BC29}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" tabRatio="795" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4613,8 +4613,8 @@
   </sheetPr>
   <dimension ref="A1:AF111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I35" sqref="I35"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O29" sqref="O29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7882,8 +7882,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:K66"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B64" sqref="B64"/>
+    <sheetView topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -9073,7 +9073,7 @@
   <dimension ref="A1:H376"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="I1" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -16724,8 +16724,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+    <sheetView topLeftCell="A60" workbookViewId="0">
+      <selection activeCell="I14" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -16983,8 +16983,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:K53"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="J48" sqref="J48"/>
+    <sheetView topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="I5" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -17766,8 +17766,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AA103"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
